--- a/scrum/qa/frontreport.xlsx
+++ b/scrum/qa/frontreport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID TEST</t>
   </si>
@@ -39,9 +39,6 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Special characters</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>The website title shows correctly</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Open the website</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,13 +95,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,79 +533,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/scrum/qa/frontreport.xlsx
+++ b/scrum/qa/frontreport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>ID TEST</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Currency boxes</t>
+  </si>
+  <si>
+    <t>The currency box title are inside the box</t>
+  </si>
+  <si>
+    <t>See the currency boxes titles</t>
+  </si>
+  <si>
+    <t>Larger titles are outside the title box</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Functionality: shows correctly the title of the currencies</t>
+  </si>
+  <si>
+    <t>Functionality: shows correctly the background of the news</t>
+  </si>
+  <si>
+    <t>News boxes</t>
+  </si>
+  <si>
+    <t>See an uniform background color on news boxes</t>
+  </si>
+  <si>
+    <t>The background color of news boxes is uniform</t>
+  </si>
+  <si>
+    <t>Go to the News Section</t>
+  </si>
+  <si>
+    <t>The background is grey in some screen resolutions</t>
   </si>
 </sst>
 </file>
@@ -151,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,9 +210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,19 +574,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -557,9 +598,9 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -613,39 +654,139 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="D10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/scrum/qa/frontreport.xlsx
+++ b/scrum/qa/frontreport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>ID TEST</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Functionality: shows correctly the title of the website</t>
   </si>
   <si>
-    <t>Render the title name</t>
-  </si>
-  <si>
     <t>Solved</t>
   </si>
   <si>
@@ -106,6 +103,39 @@
   </si>
   <si>
     <t>The background is grey in some screen resolutions</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Cryptocurrency boxes</t>
+  </si>
+  <si>
+    <t>See the cryptocurrency boxes titles</t>
+  </si>
+  <si>
+    <t>The currency box title fits in the box</t>
+  </si>
+  <si>
+    <t>Larger titles makes the height box larger</t>
+  </si>
+  <si>
+    <t>Checkout the title name</t>
+  </si>
+  <si>
+    <t>Functionality: shows correctly the Source button of News Section</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>News Source button</t>
+  </si>
+  <si>
+    <t>The buttons are positioned at the bottom</t>
+  </si>
+  <si>
+    <t>The buttons are not in the bottom in some resolutions</t>
   </si>
 </sst>
 </file>
@@ -204,14 +234,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,33 +604,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -627,42 +657,42 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -689,42 +719,42 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -751,42 +781,168 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/scrum/qa/frontreport.xlsx
+++ b/scrum/qa/frontreport.xlsx
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,12 +234,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +608,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -622,15 +623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -684,15 +685,15 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -746,15 +747,15 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -813,15 +814,15 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -875,15 +876,15 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -938,11 +939,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
